--- a/名单.xlsx
+++ b/名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxq/Library/CloudStorage/OneDrive-个人/Lecture/2024-2025/spring/stat_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E036F04-2037-5344-BE12-3522C5EC141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F9858-292D-634E-B5AF-903D42D964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="173" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="173" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1662,6 +1662,9 @@
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
@@ -1693,6 +1696,9 @@
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
@@ -1707,6 +1713,9 @@
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
@@ -1721,6 +1730,9 @@
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
@@ -1735,6 +1747,9 @@
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
@@ -1766,6 +1781,9 @@
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
@@ -1797,6 +1815,9 @@
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
@@ -1811,6 +1832,9 @@
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
@@ -1825,6 +1849,9 @@
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
@@ -1839,6 +1866,9 @@
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
@@ -1853,6 +1883,9 @@
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
@@ -1867,6 +1900,9 @@
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
@@ -1881,6 +1917,9 @@
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E59">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
@@ -1895,6 +1934,9 @@
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
@@ -1926,6 +1968,9 @@
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
@@ -1940,6 +1985,9 @@
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
@@ -1954,6 +2002,9 @@
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E64">
+        <v>16</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
@@ -1968,6 +2019,9 @@
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E65">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
@@ -1982,6 +2036,9 @@
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
@@ -1996,6 +2053,9 @@
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
@@ -2010,6 +2070,9 @@
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
@@ -2041,6 +2104,9 @@
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E70">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
@@ -2055,6 +2121,9 @@
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E71">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
@@ -2068,6 +2137,9 @@
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/名单.xlsx
+++ b/名单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxq/Library/CloudStorage/OneDrive-个人/Lecture/2024-2025/spring/stat_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F9858-292D-634E-B5AF-903D42D964BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CEF8E-5462-654D-998F-EDC4B38FBAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
   <si>
     <t>学号</t>
   </si>
@@ -484,6 +484,10 @@
   </si>
   <si>
     <t>柘黎思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -909,1236 +913,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72">
         <v>16</v>
       </c>
     </row>
